--- a/01.Document/03.DB designing/DB Designing -V2-20190418.xlsx
+++ b/01.Document/03.DB designing/DB Designing -V2-20190418.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
   <si>
     <t>Table Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,14 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bsb_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sequence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,6 +272,18 @@
   </si>
   <si>
     <t>cvv_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_on_card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit_card_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expired_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +301,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -364,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,6 +419,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -777,10 +802,10 @@
         <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -803,10 +828,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -827,7 +852,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -884,7 +909,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -903,7 +928,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -929,14 +954,14 @@
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>58</v>
+      <c r="B11" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
@@ -948,10 +973,10 @@
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
@@ -965,10 +990,10 @@
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="3">
@@ -977,6 +1002,23 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -984,6 +1026,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01.Document/03.DB designing/DB Designing -V2-20190418.xlsx
+++ b/01.Document/03.DB designing/DB Designing -V2-20190418.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>Table Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,11 +271,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cvv_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name_on_card</t>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -283,7 +283,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>expired_date</t>
+    <t>expiry date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_expiration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_cvv</t>
+  </si>
+  <si>
+    <t>cvv no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,17 +433,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,7 +792,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -868,7 +887,7 @@
       <c r="D6" s="3">
         <v>30</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="3"/>
@@ -887,7 +906,7 @@
       <c r="D7" s="3">
         <v>30</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
@@ -954,8 +973,8 @@
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>65</v>
+      <c r="B11" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -966,24 +985,28 @@
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>66</v>
+      <c r="B12" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3">
         <v>8</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -991,7 +1014,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
@@ -1000,18 +1023,20 @@
         <v>3</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D14" s="3">
         <v>30</v>
@@ -1098,7 +1123,7 @@
       <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1115,7 +1140,7 @@
       <c r="D6" s="3">
         <v>10</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">

--- a/01.Document/03.DB designing/DB Designing -V2-20190418.xlsx
+++ b/01.Document/03.DB designing/DB Designing -V2-20190418.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="14808" windowHeight="7896"/>
+    <workbookView xWindow="240" yWindow="288" windowWidth="14808" windowHeight="7836" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T_user_info" sheetId="1" r:id="rId1"/>
@@ -464,15 +464,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>396946</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>46147</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244546</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76627</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -489,7 +489,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="3169920"/>
+          <a:off x="38100" y="2651760"/>
           <a:ext cx="8146486" cy="4922947"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -860,7 +860,7 @@
       <c r="B5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3">
@@ -881,7 +881,7 @@
       <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3">
@@ -900,7 +900,7 @@
       <c r="B7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3">
@@ -917,7 +917,7 @@
       <c r="B8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3">
@@ -938,7 +938,7 @@
       <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="3">
@@ -957,7 +957,7 @@
       <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3">
@@ -976,7 +976,7 @@
       <c r="B11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="3">
@@ -1390,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/01.Document/03.DB designing/DB Designing -V2-20190418.xlsx
+++ b/01.Document/03.DB designing/DB Designing -V2-20190418.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Table Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +303,18 @@
   </si>
   <si>
     <t>cvv no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date of creating order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -429,9 +441,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -464,15 +473,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>244546</xdr:colOff>
+      <xdr:colOff>206446</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>76627</xdr:rowOff>
+      <xdr:rowOff>122347</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -489,7 +498,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="2651760"/>
+          <a:off x="0" y="2697480"/>
           <a:ext cx="8146486" cy="4922947"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -887,7 +896,7 @@
       <c r="D6" s="3">
         <v>30</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="3"/>
@@ -906,7 +915,7 @@
       <c r="D7" s="3">
         <v>30</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
@@ -973,7 +982,7 @@
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -994,7 +1003,7 @@
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1032,7 +1041,7 @@
       <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1123,7 +1132,7 @@
       <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1140,7 +1149,7 @@
       <c r="D6" s="3">
         <v>10</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -1388,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1583,10 +1592,10 @@
       <c r="A13" s="10">
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="10">
@@ -1594,6 +1603,22 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/01.Document/03.DB designing/DB Designing -V2-20190418.xlsx
+++ b/01.Document/03.DB designing/DB Designing -V2-20190418.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="288" windowWidth="14808" windowHeight="7836" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="288" windowWidth="14808" windowHeight="7836" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T_user_info" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
   <si>
     <t>Table Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,30 +63,277 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uni idx3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uni idx4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recepit_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0' - unpaid  '1'- paid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking time start from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking time end by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parking_zone_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current $</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_parking_slots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_mapping_zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_order_details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uni idx2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_user_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q_user_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit_card_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expiry date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_expiration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_cvv</t>
+  </si>
+  <si>
+    <t>cvv no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date of creating order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parking_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>parking_station</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Slot_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uni idx3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uni idx4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>charging_from</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,226 +342,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parking_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recepit_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0' - unpaid  '1'- paid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>booking time start from</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>booking time end by</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parking_zone_color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amount</t>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-Available 
+02-Booked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_lat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_lng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time 08:00 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time 04:00 PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current $</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_parking_slots</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_mapping_zone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_order_details</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idx1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uni idx2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_user_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q_user_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>credit_card_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expiry date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cc_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cc_expiration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cc_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cc_cvv</t>
-  </si>
-  <si>
-    <t>cvv no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date of creating order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,15 +481,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -453,6 +501,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,7 +852,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -827,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -853,13 +904,13 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -867,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -876,11 +927,11 @@
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -888,7 +939,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -896,8 +947,8 @@
       <c r="D6" s="3">
         <v>30</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>51</v>
+      <c r="E6" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -907,7 +958,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -915,7 +966,7 @@
       <c r="D7" s="3">
         <v>30</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
@@ -924,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -933,11 +984,11 @@
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -945,7 +996,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -956,7 +1007,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -964,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -973,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -982,8 +1033,8 @@
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>67</v>
+      <c r="B11" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -992,10 +1043,10 @@
         <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -1003,18 +1054,18 @@
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>68</v>
+      <c r="B12" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D12" s="3">
         <v>8</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -1022,8 +1073,8 @@
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>70</v>
+      <c r="B13" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
@@ -1033,7 +1084,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -1041,11 +1092,11 @@
       <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>69</v>
+      <c r="B14" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3">
         <v>30</v>
@@ -1066,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1078,10 +1129,11 @@
     <col min="2" max="2" width="19.5546875" customWidth="1"/>
     <col min="3" max="3" width="16.21875" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1090,151 +1142,208 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="2">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="2">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="2">
         <v>10</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E5:E6"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1269,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -1290,7 +1399,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1313,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -1328,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -1343,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -1399,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1427,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -1448,10 +1557,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1459,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -1468,24 +1577,24 @@
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="8" t="s">
-        <v>33</v>
+      <c r="F6" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1493,15 +1602,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="8" t="s">
-        <v>34</v>
+      <c r="F7" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1518,14 +1627,14 @@
         <v>10</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -1534,14 +1643,14 @@
         <v>10</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -1550,14 +1659,14 @@
         <v>30</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
@@ -1566,8 +1675,8 @@
         <v>1</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="9" t="s">
-        <v>32</v>
+      <c r="F11" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1575,49 +1684,49 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3">
         <v>10</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="8" t="s">
-        <v>38</v>
+      <c r="F12" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="B13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="7">
         <v>10</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
-        <v>74</v>
+      <c r="B14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1643,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1651,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1659,7 +1768,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>7</v>

--- a/01.Document/03.DB designing/DB Designing -V2-20190418.xlsx
+++ b/01.Document/03.DB designing/DB Designing -V2-20190418.xlsx
@@ -496,14 +496,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,7 +947,7 @@
       <c r="D6" s="3">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="3"/>
@@ -966,7 +966,7 @@
       <c r="D7" s="3">
         <v>30</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1244,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>85</v>
       </c>
       <c r="G8" s="2"/>
@@ -1263,7 +1263,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>86</v>
       </c>
       <c r="G9" s="2"/>
@@ -1313,7 +1313,7 @@
         <v>67</v>
       </c>
       <c r="D12" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">

--- a/01.Document/03.DB designing/DB Designing -V2-20190418.xlsx
+++ b/01.Document/03.DB designing/DB Designing -V2-20190418.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="288" windowWidth="14808" windowHeight="7836" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="288" windowWidth="14808" windowHeight="7836" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T_user_info" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
   <si>
     <t>Table Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,10 +112,6 @@
   </si>
   <si>
     <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0' - unpaid  '1'- paid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -372,6 +368,14 @@
   </si>
   <si>
     <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start with 5 bit number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0' - UNPAID  '1'- PAID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +408,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -471,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,6 +517,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,13 +894,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -907,10 +923,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -918,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -931,7 +947,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -939,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -948,7 +964,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -958,7 +974,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -975,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -984,11 +1000,11 @@
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -996,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -1007,7 +1023,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1015,7 +1031,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -1034,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -1046,7 +1062,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -1055,17 +1071,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3">
         <v>8</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -1074,7 +1090,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
@@ -1084,7 +1100,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -1093,10 +1109,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="3">
         <v>30</v>
@@ -1119,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1147,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -1159,22 +1175,22 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1182,16 +1198,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1201,10 +1217,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
@@ -1218,10 +1234,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -1235,17 +1251,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2">
         <v>8</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1254,17 +1270,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2">
         <v>8</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -1273,10 +1289,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2">
         <v>30</v>
@@ -1290,10 +1306,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2">
         <v>30</v>
@@ -1307,17 +1323,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2">
         <v>10</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1326,17 +1342,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -1378,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -1422,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -1508,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1536,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -1568,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -1577,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -1594,7 +1610,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1610,7 +1626,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1656,10 +1672,12 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1672,11 +1690,11 @@
         <v>7</v>
       </c>
       <c r="D11" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1684,28 +1702,28 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D12" s="3">
         <v>10</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="D13" s="7">
         <v>10</v>
@@ -1717,16 +1735,16 @@
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1752,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1760,7 +1778,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1768,7 +1786,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>7</v>
